--- a/doc/04_外部設計書_mippy.xlsx
+++ b/doc/04_外部設計書_mippy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\D-1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26793947-8D71-45BF-B855-021C00EB9805}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18F140-AF11-458E-AD35-02705CC7A208}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="2450" windowWidth="14400" windowHeight="7360" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="トップ画面" sheetId="23" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="476">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -2781,13 +2781,7 @@
     <t>ログイン</t>
   </si>
   <si>
-    <t>u_pw</t>
-  </si>
-  <si>
     <t>パスワード</t>
-  </si>
-  <si>
-    <t>u_addr</t>
   </si>
   <si>
     <t>メール</t>
@@ -3811,6 +3805,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3819,6 +3868,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3882,64 +3934,6 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11701,158 +11695,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="45" t="s">
-        <v>471</v>
-      </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="69" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47">
         <v>45084</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="61">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49">
         <v>45085</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:62" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -14828,7 +14822,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -14840,7 +14834,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -14878,19 +14872,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
@@ -14934,13 +14928,13 @@
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -14978,19 +14972,19 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -15030,13 +15024,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -15062,7 +15056,7 @@
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
       <c r="AD83" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AE83" s="15"/>
       <c r="AF83" s="15"/>
@@ -15082,7 +15076,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -15114,7 +15108,7 @@
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
       <c r="AD84" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
@@ -16179,11 +16173,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -16194,6 +16183,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16224,158 +16218,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46">
         <v>20230607</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="50">
         <v>20230608</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -17960,7 +17954,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="50"/>
+      <c r="X43" s="26"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
@@ -19215,7 +19209,7 @@
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D73" s="10"/>
@@ -19495,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -19595,7 +19589,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -19625,13 +19619,13 @@
       <c r="V81" s="17">
         <v>20</v>
       </c>
-      <c r="W81" s="48" t="s">
+      <c r="W81" s="24" t="s">
         <v>254</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="47" t="s">
+      <c r="AA81" s="23" t="s">
         <v>281</v>
       </c>
       <c r="AB81" s="15"/>
@@ -19655,7 +19649,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -19671,7 +19665,7 @@
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="47" t="s">
+      <c r="O82" s="23" t="s">
         <v>269</v>
       </c>
       <c r="P82" s="15"/>
@@ -19683,13 +19677,13 @@
       <c r="V82" s="17">
         <v>4</v>
       </c>
-      <c r="W82" s="48" t="s">
+      <c r="W82" s="24" t="s">
         <v>254</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
-      <c r="AA82" s="47" t="s">
+      <c r="AA82" s="23" t="s">
         <v>279</v>
       </c>
       <c r="AB82" s="15"/>
@@ -19713,7 +19707,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -19729,7 +19723,7 @@
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="47" t="s">
+      <c r="O83" s="23" t="s">
         <v>269</v>
       </c>
       <c r="P83" s="15"/>
@@ -19741,13 +19735,13 @@
       <c r="V83" s="17">
         <v>4</v>
       </c>
-      <c r="W83" s="48" t="s">
+      <c r="W83" s="24" t="s">
         <v>254</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
-      <c r="AA83" s="47" t="s">
+      <c r="AA83" s="23" t="s">
         <v>277</v>
       </c>
       <c r="AB83" s="15"/>
@@ -19771,7 +19765,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -19797,13 +19791,13 @@
       <c r="T84" s="17"/>
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
-      <c r="W84" s="48" t="s">
+      <c r="W84" s="24" t="s">
         <v>254</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
-      <c r="AA84" s="47" t="s">
+      <c r="AA84" s="23" t="s">
         <v>274</v>
       </c>
       <c r="AB84" s="15"/>
@@ -19827,7 +19821,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -19853,13 +19847,13 @@
       <c r="T85" s="17"/>
       <c r="U85" s="14"/>
       <c r="V85" s="17"/>
-      <c r="W85" s="48" t="s">
+      <c r="W85" s="24" t="s">
         <v>254</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
-      <c r="AA85" s="47" t="s">
+      <c r="AA85" s="23" t="s">
         <v>272</v>
       </c>
       <c r="AB85" s="15"/>
@@ -19883,7 +19877,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -19899,7 +19893,7 @@
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
-      <c r="O86" s="47" t="s">
+      <c r="O86" s="23" t="s">
         <v>269</v>
       </c>
       <c r="P86" s="15"/>
@@ -19911,13 +19905,13 @@
       <c r="V86" s="17">
         <v>4</v>
       </c>
-      <c r="W86" s="48" t="s">
+      <c r="W86" s="24" t="s">
         <v>254</v>
       </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="17"/>
-      <c r="AA86" s="47" t="s">
+      <c r="AA86" s="23" t="s">
         <v>268</v>
       </c>
       <c r="AB86" s="15"/>
@@ -19941,7 +19935,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -19967,13 +19961,13 @@
       <c r="T87" s="17"/>
       <c r="U87" s="14"/>
       <c r="V87" s="17"/>
-      <c r="W87" s="48" t="s">
+      <c r="W87" s="24" t="s">
         <v>254</v>
       </c>
       <c r="X87" s="15"/>
       <c r="Y87" s="15"/>
       <c r="Z87" s="17"/>
-      <c r="AA87" s="47" t="s">
+      <c r="AA87" s="23" t="s">
         <v>264</v>
       </c>
       <c r="AB87" s="15"/>
@@ -19997,7 +19991,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -20049,7 +20043,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -20099,7 +20093,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -20125,13 +20119,13 @@
       <c r="T90" s="17"/>
       <c r="U90" s="14"/>
       <c r="V90" s="17"/>
-      <c r="W90" s="48" t="s">
+      <c r="W90" s="24" t="s">
         <v>254</v>
       </c>
       <c r="X90" s="15"/>
       <c r="Y90" s="15"/>
       <c r="Z90" s="17"/>
-      <c r="AA90" s="47" t="s">
+      <c r="AA90" s="23" t="s">
         <v>257</v>
       </c>
       <c r="AB90" s="15"/>
@@ -20155,7 +20149,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -20181,13 +20175,13 @@
       <c r="T91" s="17"/>
       <c r="U91" s="14"/>
       <c r="V91" s="17"/>
-      <c r="W91" s="48" t="s">
+      <c r="W91" s="24" t="s">
         <v>254</v>
       </c>
       <c r="X91" s="15"/>
       <c r="Y91" s="15"/>
       <c r="Z91" s="17"/>
-      <c r="AA91" s="47" t="s">
+      <c r="AA91" s="23" t="s">
         <v>253</v>
       </c>
       <c r="AB91" s="15"/>
@@ -20211,7 +20205,7 @@
         <v>14</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -20261,7 +20255,7 @@
         <v>15</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -20978,11 +20972,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -20993,6 +20982,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -21011,8 +21005,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AA83" sqref="AA83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21026,158 +21020,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="38" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47">
         <v>45084</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="61">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49">
         <v>45085</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -23874,7 +23868,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -23886,7 +23880,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -23924,7 +23918,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
@@ -23974,13 +23968,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -24024,13 +24018,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -24053,12 +24047,14 @@
       </c>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
-      <c r="AA82" s="14"/>
+      <c r="AA82" s="14" t="s">
+        <v>346</v>
+      </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
       <c r="AD82" s="14"/>
@@ -24080,13 +24076,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -24109,12 +24105,14 @@
       </c>
       <c r="V83" s="17"/>
       <c r="W83" s="14" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
-      <c r="AA83" s="14"/>
+      <c r="AA83" s="14" t="s">
+        <v>343</v>
+      </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
       <c r="AD83" s="14"/>
@@ -24136,7 +24134,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -24186,7 +24184,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -24236,7 +24234,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -25257,11 +25255,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -25272,6 +25265,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -25300,158 +25298,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47">
         <v>45084</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="61">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49">
         <v>45085</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -28552,7 +28550,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -28654,7 +28652,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -28703,7 +28701,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -28753,7 +28751,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -28811,7 +28809,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -28869,7 +28867,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -28930,31 +28928,31 @@
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="63" t="s">
+      <c r="H86" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="I86" s="65"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="63" t="s">
+      <c r="I86" s="40"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="M86" s="62"/>
-      <c r="N86" s="64"/>
-      <c r="O86" s="63" t="s">
+      <c r="M86" s="37"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="62"/>
-      <c r="R86" s="64"/>
-      <c r="S86" s="63"/>
-      <c r="T86" s="64"/>
-      <c r="U86" s="63"/>
-      <c r="V86" s="64"/>
-      <c r="W86" s="63" t="s">
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="X86" s="62"/>
+      <c r="X86" s="37"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="17"/>
       <c r="AA86" s="14"/>
@@ -28979,7 +28977,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -29037,7 +29035,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -29095,7 +29093,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -29145,7 +29143,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -29992,11 +29990,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -30007,6 +30000,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -30035,156 +30033,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46">
         <v>20230607</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="50">
         <v>20230608</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33284,7 +33282,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -33296,11 +33294,11 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
-      <c r="O79" s="67"/>
+      <c r="O79" s="42"/>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
@@ -33316,7 +33314,7 @@
       <c r="AB79" s="15"/>
       <c r="AC79" s="17"/>
       <c r="AD79" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AE79" s="15"/>
       <c r="AF79" s="15"/>
@@ -33348,11 +33346,11 @@
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
-      <c r="O80" s="67"/>
+      <c r="O80" s="42"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
       <c r="S80" s="14"/>
@@ -33387,24 +33385,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="66" t="s">
-        <v>372</v>
+      <c r="O81" s="41" t="s">
+        <v>370</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -33413,23 +33411,23 @@
         <v>1</v>
       </c>
       <c r="T81" s="17"/>
-      <c r="U81" s="66">
+      <c r="U81" s="41">
         <v>80</v>
       </c>
       <c r="V81" s="17"/>
-      <c r="W81" s="66" t="s">
+      <c r="W81" s="41" t="s">
         <v>254</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="66" t="s">
-        <v>388</v>
+      <c r="AA81" s="41" t="s">
+        <v>386</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
       <c r="AD81" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AE81" s="15"/>
       <c r="AF81" s="15"/>
@@ -33449,7 +33447,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -33461,34 +33459,34 @@
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="66" t="s">
+      <c r="O82" s="41" t="s">
         <v>245</v>
       </c>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
       <c r="S82" s="14"/>
       <c r="T82" s="17"/>
-      <c r="U82" s="66">
+      <c r="U82" s="41">
         <v>1</v>
       </c>
       <c r="V82" s="17"/>
-      <c r="W82" s="66" t="s">
+      <c r="W82" s="41" t="s">
         <v>254</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
-      <c r="AA82" s="66" t="s">
-        <v>385</v>
+      <c r="AA82" s="41" t="s">
+        <v>383</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
       <c r="AD82" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AE82" s="15"/>
       <c r="AF82" s="15"/>
@@ -33508,19 +33506,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -33536,11 +33534,11 @@
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
-      <c r="AA83" s="68"/>
+      <c r="AA83" s="43"/>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
       <c r="AD83" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AE83" s="15"/>
       <c r="AF83" s="15"/>
@@ -33560,47 +33558,47 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="66" t="s">
-        <v>372</v>
+      <c r="O84" s="41" t="s">
+        <v>370</v>
       </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
       <c r="S84" s="14"/>
       <c r="T84" s="17"/>
-      <c r="U84" s="66">
+      <c r="U84" s="41">
         <v>20</v>
       </c>
       <c r="V84" s="17"/>
-      <c r="W84" s="66" t="s">
+      <c r="W84" s="41" t="s">
         <v>254</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
-      <c r="AA84" s="66" t="s">
-        <v>377</v>
+      <c r="AA84" s="41" t="s">
+        <v>375</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
       <c r="AD84" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
@@ -33620,47 +33618,47 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
-      <c r="O85" s="66" t="s">
-        <v>372</v>
+      <c r="O85" s="41" t="s">
+        <v>370</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>
       <c r="S85" s="14"/>
       <c r="T85" s="17"/>
-      <c r="U85" s="66">
+      <c r="U85" s="41">
         <v>20</v>
       </c>
       <c r="V85" s="17"/>
-      <c r="W85" s="66" t="s">
+      <c r="W85" s="41" t="s">
         <v>254</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
-      <c r="AA85" s="66" t="s">
-        <v>377</v>
+      <c r="AA85" s="41" t="s">
+        <v>375</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
       <c r="AD85" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
@@ -33680,7 +33678,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -33692,11 +33690,11 @@
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
-      <c r="O86" s="67"/>
+      <c r="O86" s="42"/>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="17"/>
@@ -33712,7 +33710,7 @@
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
       <c r="AD86" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AE86" s="15"/>
       <c r="AF86" s="15"/>
@@ -33732,23 +33730,23 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
       <c r="L87" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
-      <c r="O87" s="67"/>
+      <c r="O87" s="42"/>
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="17"/>
@@ -33764,7 +33762,7 @@
       <c r="AB87" s="15"/>
       <c r="AC87" s="17"/>
       <c r="AD87" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AE87" s="15"/>
       <c r="AF87" s="15"/>
@@ -33784,18 +33782,18 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
-      <c r="L88" s="66" t="s">
+      <c r="L88" s="41" t="s">
         <v>221</v>
       </c>
       <c r="M88" s="15"/>
@@ -33806,13 +33804,13 @@
       <c r="R88" s="17"/>
       <c r="S88" s="14"/>
       <c r="T88" s="17"/>
-      <c r="U88" s="66"/>
+      <c r="U88" s="41"/>
       <c r="V88" s="17"/>
-      <c r="W88" s="66"/>
+      <c r="W88" s="41"/>
       <c r="X88" s="15"/>
       <c r="Y88" s="15"/>
       <c r="Z88" s="17"/>
-      <c r="AA88" s="66"/>
+      <c r="AA88" s="41"/>
       <c r="AB88" s="15"/>
       <c r="AC88" s="17"/>
       <c r="AD88" s="14"/>
@@ -34711,11 +34709,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -34726,6 +34719,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -34744,8 +34742,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34756,158 +34754,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47">
         <v>45084</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="61">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49">
         <v>45085</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -36815,7 +36813,7 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D51" s="2"/>
@@ -36860,7 +36858,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="70" t="s">
+      <c r="D52" s="45" t="s">
         <v>59</v>
       </c>
       <c r="E52" s="2"/>
@@ -37115,7 +37113,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -38011,7 +38009,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -38023,7 +38021,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -38111,13 +38109,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -38143,7 +38141,7 @@
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
       <c r="AD81" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AE81" s="15"/>
       <c r="AF81" s="15"/>
@@ -38163,13 +38161,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -38195,7 +38193,7 @@
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
       <c r="AD82" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AE82" s="15"/>
       <c r="AF82" s="15"/>
@@ -38259,13 +38257,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -38291,7 +38289,7 @@
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
       <c r="AD84" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
@@ -38311,13 +38309,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
@@ -38343,7 +38341,7 @@
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
       <c r="AD85" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
@@ -38363,7 +38361,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -38375,7 +38373,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -38413,13 +38411,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
@@ -39384,11 +39382,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -39399,6 +39392,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -39427,158 +39425,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="38" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46">
         <v>20230607</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="50">
         <v>20230608</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -42666,7 +42664,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -42678,7 +42676,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -42768,19 +42766,19 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -42801,7 +42799,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -42824,7 +42822,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -42874,7 +42872,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -42924,19 +42922,19 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -42957,7 +42955,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -42980,19 +42978,19 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
@@ -43013,7 +43011,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -43036,19 +43034,19 @@
         <v>8</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -43070,7 +43068,7 @@
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
       <c r="AD86" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AE86" s="15"/>
       <c r="AF86" s="15"/>
@@ -43090,7 +43088,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -43140,7 +43138,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -44067,11 +44065,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -44082,6 +44075,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -44110,154 +44108,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47">
         <v>45084</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:62" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -47657,7 +47655,7 @@
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -47707,7 +47705,7 @@
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -47757,7 +47755,7 @@
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -47807,7 +47805,7 @@
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -48843,154 +48841,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47">
         <v>45084</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -52111,7 +52109,7 @@
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -52169,7 +52167,7 @@
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
@@ -52227,7 +52225,7 @@
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -52285,7 +52283,7 @@
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -52335,7 +52333,7 @@
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -52393,7 +52391,7 @@
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -52451,7 +52449,7 @@
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -52501,7 +52499,7 @@
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -52601,7 +52599,7 @@
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -53571,158 +53569,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="28" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47">
         <v>45084</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="61">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49">
         <v>45085</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -56781,7 +56779,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -56833,7 +56831,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
@@ -56885,7 +56883,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -56935,7 +56933,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -56981,21 +56979,21 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="60">
+      <c r="C83" s="36">
         <v>5</v>
       </c>
-      <c r="D83" s="59" t="s">
-        <v>419</v>
-      </c>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="59" t="s">
+      <c r="D83" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="I83" s="58"/>
-      <c r="J83" s="57"/>
-      <c r="K83" s="56"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="32"/>
       <c r="L83" s="14"/>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -57031,21 +57029,21 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="58">
+      <c r="C84" s="34">
         <v>6</v>
       </c>
-      <c r="D84" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="59" t="s">
+      <c r="D84" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="I84" s="58"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="56"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="32"/>
       <c r="L84" s="15" t="s">
         <v>310</v>
       </c>
@@ -57086,16 +57084,16 @@
     </row>
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="51"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="27"/>
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
@@ -57135,21 +57133,21 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="9"/>
-      <c r="C86" s="54">
+      <c r="C86" s="30">
         <v>7</v>
       </c>
-      <c r="D86" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="53" t="s">
+      <c r="D86" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="I86" s="49"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="51"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="27"/>
       <c r="L86" s="14"/>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -57193,7 +57191,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -57247,7 +57245,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -57278,7 +57276,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="17"/>
       <c r="AA88" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AB88" s="15"/>
       <c r="AC88" s="17"/>
@@ -57301,7 +57299,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -57359,7 +57357,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -57390,7 +57388,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="17"/>
       <c r="AA90" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AB90" s="15"/>
       <c r="AC90" s="17"/>
@@ -57467,7 +57465,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -58226,11 +58224,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -58241,6 +58234,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/04_外部設計書_mippy.xlsx
+++ b/doc/04_外部設計書_mippy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\D-1\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18F140-AF11-458E-AD35-02705CC7A208}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8E3A21-F238-41C3-A9FD-0787507F004B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="トップ画面" sheetId="23" r:id="rId1"/>
@@ -3860,27 +3860,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3934,6 +3913,27 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11683,8 +11683,8 @@
   </sheetPr>
   <dimension ref="A1:BJ109"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11695,158 +11695,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="69" t="s">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>45084</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67">
         <v>45085</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:62" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -16206,8 +16206,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="S94" sqref="S94"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16218,158 +16218,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="69" t="s">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64">
         <v>20230607</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="50">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="68">
         <v>20230608</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -21005,8 +21005,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AA83" sqref="AA83"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21020,158 +21020,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>45084</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67">
         <v>45085</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -25288,8 +25288,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25298,158 +25298,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="69" t="s">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>45084</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67">
         <v>45085</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -30023,8 +30023,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="Q94" sqref="Q94"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30033,156 +30033,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="69" t="s">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64">
         <v>20230607</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="50">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="68">
         <v>20230608</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -34742,8 +34742,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O79" sqref="O79"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34754,158 +34754,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="69" t="s">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>45084</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67">
         <v>45085</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -39415,8 +39415,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39425,158 +39425,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="62" t="s">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64">
         <v>20230607</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="50">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="68">
         <v>20230608</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -44098,8 +44098,8 @@
   </sheetPr>
   <dimension ref="A1:BJ109"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="123" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView zoomScale="123" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -44108,154 +44108,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>45084</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:62" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -48831,8 +48831,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="85" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="T91" sqref="T91"/>
+    <sheetView zoomScale="85" zoomScaleNormal="101" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48841,154 +48841,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>45084</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -53559,8 +53559,8 @@
   </sheetPr>
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z93" sqref="Z93"/>
+    <sheetView zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -53569,158 +53569,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="62" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="69" t="s">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>45084</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67">
         <v>45085</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="51"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="69"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="63" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
